--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,9 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
-  <si>
-    <t>土.地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="135">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣内埔鄉新東勢段05570000地號</t>
+  </si>
+  <si>
+    <t>屏東縣內埔鄉早角段04700000地號</t>
+  </si>
+  <si>
+    <t>屏東縣內埔鄉早角段04710000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段03490000地號</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>48分之6</t>
+  </si>
+  <si>
+    <t>10000分之28</t>
+  </si>
+  <si>
+    <t>邱文彥</t>
+  </si>
+  <si>
+    <t>黃淑芬</t>
+  </si>
+  <si>
+    <t>85年07月31日</t>
+  </si>
+  <si>
+    <t>85年07月31曰</t>
+  </si>
+  <si>
+    <t>87年10月23日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年農牧用地旱地目）</t>
+  </si>
+  <si>
+    <t>(超過五年農.牧用地墓地目）</t>
+  </si>
+  <si>
+    <t>(超過五年農牧用地墓地百）</t>
+  </si>
+  <si>
+    <t>(超過五年農牧用地）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpf3df1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -31,168 +139,96 @@
     <t>權利範圍(持分）</t>
   </si>
   <si>
+    <t>所有權.人</t>
+  </si>
+  <si>
+    <t>登記（取得）時間</t>
+  </si>
+  <si>
+    <t>登記（取得）原因</t>
+  </si>
+  <si>
+    <t>取得價額</t>
+  </si>
+  <si>
+    <t>屏寒縣内埔鄉嘉應路</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05653000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05715000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05721000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之12</t>
+  </si>
+  <si>
+    <t>10000分之540</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>86年04月10日</t>
+  </si>
+  <si>
+    <t>87年10月23.日</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>屏東縣内埔鄉新東勢段 0557-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣內埔鄉早角段0470-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣內埔鄉早角段0471-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 0349-0000 地號</t>
-  </si>
-  <si>
-    <t>土 地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>48分之6</t>
-  </si>
-  <si>
-    <t>10000分之 28</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>邱文彥</t>
-  </si>
-  <si>
-    <t>黃淑芬</t>
-  </si>
-  <si>
-    <t>85年07月 31日</t>
-  </si>
-  <si>
-    <t>85年07月 31曰</t>
-  </si>
-  <si>
-    <t>87年10月 23日</t>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>變動'原因</t>
-  </si>
-  <si>
-    <t>(超過五年,農 牧用地,旱地 目）</t>
-  </si>
-  <si>
-    <t>(超過五年’農. 牧用地’墓地 目）</t>
-  </si>
-  <si>
-    <t>(超過五年,農' 牧用地，墓地 百）</t>
-  </si>
-  <si>
-    <t>(超過五年，農 牧用地）•</t>
+    <t>(超過五年平房屋）</t>
+  </si>
+  <si>
+    <t>(超過五年自用）</t>
+  </si>
+  <si>
+    <t>(超過五年自用）.</t>
+  </si>
+  <si>
+    <t>變動原因</t>
+  </si>
+  <si>
+    <t>形</t>
   </si>
   <si>
     <t>變動時之價額</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>所有權.人</t>
-  </si>
-  <si>
-    <t>屏寒縣内埔鄉嘉應路</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05653-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05715-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05721-000 建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 12</t>
-  </si>
-  <si>
-    <t>10000分之 540</t>
-  </si>
-  <si>
-    <t>'變</t>
-  </si>
-  <si>
-    <t>86年04月 10日</t>
-  </si>
-  <si>
-    <t>87年10月 23.日</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>(超過五年，平 房屋）</t>
-  </si>
-  <si>
-    <t>(超過五年’自 用）</t>
-  </si>
-  <si>
-    <t>(超過五年,自 用）</t>
-  </si>
-  <si>
-    <t>(超過五年,自 用） .</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
     <t>廠牌型號</t>
   </si>
   <si>
@@ -211,7 +247,7 @@
     <t>日產Sentra</t>
   </si>
   <si>
-    <t>rrr-f=fc3f 貝賣</t>
+    <t>rrrf=fc3f貝賣</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -229,13 +265,13 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北富邦商業銀行松江分 行</t>
-  </si>
-  <si>
-    <t>基隆第一信用合作社八斗 子分社</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行古亭分 行</t>
+    <t>台北富邦商業銀行松江分行</t>
+  </si>
+  <si>
+    <t>基隆第一信用合作社八斗子分社</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行古亭分行</t>
   </si>
   <si>
     <t>灣銀行武昌分行</t>
@@ -247,31 +283,31 @@
     <t>臺灣銀行和平分行</t>
   </si>
   <si>
-    <t>f國信託商業銀行雙和分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永 和福和郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高 雄西子灣郵局</t>
+    <t>f國信託商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永和福和郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄西子灣郵局</t>
   </si>
   <si>
     <t>彰化商業銀行鹽埕分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行古亭分 行</t>
+    <t>國泰世華商業銀行古亭分行</t>
   </si>
   <si>
     <t>安泰商業銀行中和分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行大稻埕 分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行復興分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行安和分 行</t>
+    <t>合作金庫商業銀行大稻埕分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行復興分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行安和分行</t>
   </si>
   <si>
     <t>臺灣銀行</t>
@@ -292,7 +328,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>353', 603</t>
+    <t>353603</t>
   </si>
   <si>
     <t>名稱</t>
@@ -328,34 +364,34 @@
     <t>有</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及美</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>晉元康五年「五谷豐登」款越 窯黯罐</t>
-  </si>
-  <si>
-    <t>宋/金兔毫紋黑釉碗</t>
+    <t>(九）珠寶古董字畫及美</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>晉元康五年「五谷豐登」款越窯黯罐</t>
+  </si>
+  <si>
+    <t>宋金兔毫紋黑釉碗</t>
   </si>
   <si>
     <t>家傳古董民藝品</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 / 件</t>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項件</t>
   </si>
   <si>
     <t>一批</t>
   </si>
   <si>
-    <t>m :新臺幣600，ooo元）</t>
-  </si>
-  <si>
-    <t>價 額</t>
+    <t>m:新臺幣600ooo元）</t>
+  </si>
+  <si>
+    <t>價額</t>
   </si>
   <si>
     <t>無法估價</t>
@@ -379,16 +415,16 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽靈活理財變額保險 乙型(ULB)</t>
+    <t>富邦人壽靈活理財變額保險乙型(ULB)</t>
   </si>
   <si>
     <t>南山新增值分紅養老壽險</t>
   </si>
   <si>
-    <t>保險期間終身，保險費月繳， 金額5，000</t>
-  </si>
-  <si>
-    <t>保險期間25年，保險費年繳， 金額53,500</t>
+    <t>保險期間終身保險費月繳金額5000</t>
+  </si>
+  <si>
+    <t>保險期間25年保險費年繳金額53500</t>
   </si>
 </sst>
 </file>
@@ -747,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,135 +811,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>220.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>261.36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1561</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -921,188 +1036,188 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>42.95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>166.66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>2712.14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>100.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1120,42 +1235,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>96.12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>650000</v>
@@ -1163,25 +1278,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>1769</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>91.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1199,36 +1314,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>2922</v>
@@ -1236,19 +1351,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>519</v>
@@ -1256,19 +1371,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>1264</v>
@@ -1276,19 +1391,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>226760</v>
@@ -1296,19 +1411,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>84544</v>
@@ -1316,19 +1431,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>132</v>
@@ -1336,19 +1451,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>8045</v>
@@ -1356,19 +1471,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>108724</v>
@@ -1376,39 +1491,39 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>70</v>
@@ -1416,19 +1531,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <v>145</v>
@@ -1436,19 +1551,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1456,19 +1571,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1476,19 +1591,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
         <v>37120</v>
@@ -1496,19 +1611,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
         <v>103527</v>
@@ -1516,19 +1631,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
         <v>512577</v>
@@ -1536,19 +1651,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
         <v>879.46</v>
@@ -1556,19 +1671,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
         <v>2025</v>
@@ -1576,19 +1691,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
         <v>5287</v>
@@ -1609,36 +1724,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
         <v>912713</v>
@@ -1646,19 +1761,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
         <v>365024</v>
@@ -1679,62 +1794,62 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>250000</v>
@@ -1742,16 +1857,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>350000</v>
@@ -1759,19 +1874,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1789,50 +1904,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣内埔鄉新東勢段05570000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣內埔鄉早角段04700000地號</t>
@@ -76,9 +79,6 @@
     <t>臺北市大安區龍泉段一小段03490000地號</t>
   </si>
   <si>
-    <t>8分之1</t>
-  </si>
-  <si>
     <t>48分之6</t>
   </si>
   <si>
@@ -91,9 +91,6 @@
     <t>黃淑芬</t>
   </si>
   <si>
-    <t>85年07月31日</t>
-  </si>
-  <si>
     <t>85年07月31曰</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>(超過五年農牧用地旱地目）</t>
-  </si>
-  <si>
     <t>(超過五年農.牧用地墓地目）</t>
   </si>
   <si>
@@ -130,69 +124,57 @@
     <t>tmpf3df1</t>
   </si>
   <si>
-    <t>建物標示</t>
+    <t>屏寒縣内埔鄉嘉應路</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>86年04月10日</t>
+  </si>
+  <si>
+    <t>(超過五年平房屋）</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05653000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05715000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05721000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之12</t>
+  </si>
+  <si>
+    <t>10000分之540</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
+    <t>變</t>
+  </si>
+  <si>
     <t>權利範圍(持分）</t>
   </si>
   <si>
-    <t>所有權.人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>屏寒縣内埔鄉嘉應路</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05653000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05715000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05721000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之12</t>
-  </si>
-  <si>
-    <t>10000分之540</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>86年04月10日</t>
-  </si>
-  <si>
     <t>87年10月23.日</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>變動時間</t>
   </si>
   <si>
-    <t>(超過五年平房屋）</t>
-  </si>
-  <si>
     <t>(超過五年自用）</t>
   </si>
   <si>
@@ -229,199 +208,145 @@
     <t>變動時之價額</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>曰產Livina</t>
+  </si>
+  <si>
+    <t>日產Sentra</t>
+  </si>
+  <si>
+    <t>rrrf=fc3f貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松江分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>基隆第一信用合作社八斗子分社</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行和平分行</t>
+  </si>
+  <si>
+    <t>f國信託商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永和福和郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄西子灣郵局</t>
+  </si>
+  <si>
+    <t>彰化商業銀行鹽埕分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行中和分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大稻埕分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行復興分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行安和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>353603</t>
+  </si>
+  <si>
+    <t>海外基金</t>
+  </si>
+  <si>
+    <t>台北富邦銀行</t>
+  </si>
+  <si>
+    <t>富坦中國家</t>
+  </si>
+  <si>
+    <t>臺灣中小企銀</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及美</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>m:新臺幣600ooo元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>晉元康五年「五谷豐登」款越窯黯罐</t>
+  </si>
+  <si>
+    <t>宋金兔毫紋黑釉碗</t>
+  </si>
+  <si>
+    <t>家傳古董民藝品</t>
+  </si>
+  <si>
+    <t>項件</t>
+  </si>
+  <si>
+    <t>一批</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>登記（取#)時間</t>
-  </si>
-  <si>
-    <t>曰產Livina</t>
-  </si>
-  <si>
-    <t>日產Sentra</t>
-  </si>
-  <si>
-    <t>rrrf=fc3f貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松江分行</t>
-  </si>
-  <si>
-    <t>基隆第一信用合作社八斗子分社</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行和平分行</t>
-  </si>
-  <si>
-    <t>f國信託商業銀行雙和分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永和福和郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高雄西子灣郵局</t>
-  </si>
-  <si>
-    <t>彰化商業銀行鹽埕分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行中和分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大稻埕分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行復興分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行安和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>353603</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>海外基金</t>
-  </si>
-  <si>
-    <t>富坦中國家</t>
-  </si>
-  <si>
-    <t>台北富邦銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企銀</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及美</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>晉元康五年「五谷豐登」款越窯黯罐</t>
-  </si>
-  <si>
-    <t>宋金兔毫紋黑釉碗</t>
-  </si>
-  <si>
-    <t>家傳古董民藝品</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>一批</t>
-  </si>
-  <si>
-    <t>m:新臺幣600ooo元）</t>
-  </si>
-  <si>
     <t>價額</t>
   </si>
   <si>
     <t>無法估價</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備往</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>富邦人壽靈活理財變額保險乙型(ULB)</t>
+  </si>
+  <si>
+    <t>保險期間終身保險費月繳金額5000</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽靈活理財變額保險乙型(ULB)</t>
-  </si>
-  <si>
     <t>南山新增值分紅養老壽險</t>
-  </si>
-  <si>
-    <t>保險期間終身保險費月繳金額5000</t>
   </si>
   <si>
     <t>保險期間25年保險費年繳金額53500</t>
@@ -783,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,19 +757,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3215</v>
+        <v>220.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -853,19 +784,19 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>
@@ -874,21 +805,27 @@
         <v>1743</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>220.16</v>
+        <v>261.36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -897,22 +834,22 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
@@ -921,27 +858,33 @@
         <v>1743</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>261.36</v>
+        <v>1561</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -950,16 +893,16 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>21</v>
@@ -968,57 +911,16 @@
         <v>1743</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1561</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1743</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17</v>
+      <c r="P4" s="2">
+        <v>0.0028</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.3708</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +930,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1036,188 +938,161 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42.95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>42.95</v>
+        <v>166.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>166.66</v>
+        <v>2712.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>2712.14</v>
+        <v>100.7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100.7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1235,68 +1110,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="1">
+        <v>96.12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="G1" s="1">
+        <v>650000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
-        <v>1598</v>
+        <v>1769</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>96.12</v>
+        <v>91.8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1769</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2">
-        <v>91.8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1314,253 +1166,253 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2922</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>2922</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>519</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>1264</v>
+        <v>226760</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>226760</v>
+        <v>84544</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2">
-        <v>84544</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>132</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="2">
-        <v>8045</v>
+        <v>108724</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2">
-        <v>108724</v>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>102</v>
+      <c r="F10" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="2">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1571,141 +1423,121 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="2">
-        <v>37120</v>
+        <v>103527</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2">
-        <v>103527</v>
+        <v>512577</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2">
-        <v>512577</v>
+        <v>879.46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="2">
-        <v>879.46</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2">
         <v>5287</v>
       </c>
     </row>
@@ -1716,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1724,58 +1556,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="F1" s="1">
+        <v>912713</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2">
-        <v>912713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2">
         <v>365024</v>
       </c>
     </row>
@@ -1786,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1794,56 +1606,56 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1852,41 +1664,24 @@
         <v>21</v>
       </c>
       <c r="E4" s="2">
-        <v>250000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="E5" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1904,50 +1699,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
         <v>109</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣内埔鄉新東勢段05570000地號</t>
+  </si>
+  <si>
     <t>屏東縣內埔鄉早角段04700000地號</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>臺北市大安區龍泉段一小段03490000地號</t>
   </si>
   <si>
+    <t>8分之1</t>
+  </si>
+  <si>
     <t>48分之6</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>黃淑芬</t>
   </si>
   <si>
+    <t>85年07月31日</t>
+  </si>
+  <si>
     <t>85年07月31曰</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>(超過五年農牧用地旱地目）</t>
+  </si>
+  <si>
     <t>(超過五年農.牧用地墓地目）</t>
   </si>
   <si>
@@ -127,85 +139,43 @@
     <t>屏寒縣内埔鄉嘉應路</t>
   </si>
   <si>
+    <t>臺北市大安區龍泉段一小段05653000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05715000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05721000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之12</t>
+  </si>
+  <si>
+    <t>10000分之540</t>
+  </si>
+  <si>
     <t>86年04月10日</t>
   </si>
   <si>
+    <t>87年10月23.日</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>(超過五年平房屋）</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段一小段05653000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05715000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05721000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之12</t>
-  </si>
-  <si>
-    <t>10000分之540</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>87年10月23.日</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
     <t>(超過五年自用）</t>
   </si>
   <si>
     <t>(超過五年自用）.</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
   </si>
   <si>
     <t>曰產Livina</t>
@@ -708,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,160 +736,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>220.16</v>
+        <v>3215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1743</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.125</v>
       </c>
       <c r="Q2" s="2">
-        <v>27.52</v>
+        <v>401.875</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>261.36</v>
+        <v>220.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1743</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.125</v>
       </c>
       <c r="Q3" s="2">
-        <v>32.67</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1561</v>
+        <v>261.36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1743</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1561</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2">
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>0.0028</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>4.3708</v>
       </c>
     </row>
@@ -930,169 +953,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42.95</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>166.66</v>
+        <v>42.95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>21.475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>2712.14</v>
+        <v>166.66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>100.7</v>
+        <v>2712.14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="P4" s="2">
+        <v>0.0012</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3.254568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>100.7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.054</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.4378</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,19 +1236,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1">
         <v>1598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1">
         <v>96.12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1">
         <v>650000</v>
@@ -1130,25 +1256,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
+        <v>1598</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>96.12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2">
         <v>1769</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
         <v>91.8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1166,16 +1315,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1">
         <v>2922</v>
@@ -1183,239 +1332,239 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>519</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>1264</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
-        <v>226760</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>84544</v>
+        <v>226760</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>132</v>
+        <v>84544</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
-        <v>8045</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
-        <v>108724</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>108724</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1423,121 +1572,141 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
-        <v>37120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
-        <v>103527</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>512577</v>
+        <v>103527</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
-        <v>879.46</v>
+        <v>512577</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
-        <v>2025</v>
+        <v>879.46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
         <v>5287</v>
       </c>
     </row>
@@ -1548,7 +1717,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,16 +1725,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1">
         <v>912713</v>
@@ -1573,21 +1742,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2">
+        <v>912713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2">
         <v>365024</v>
       </c>
     </row>
@@ -1598,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1606,82 +1795,97 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2">
-        <v>250000</v>
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>350000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>98</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>103</v>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1699,33 +1903,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>(超過五年自用）.</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>曰產Livina</t>
@@ -1228,38 +1231,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1">
-        <v>1598</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>96.12</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -1276,13 +1300,34 @@
       <c r="G2" s="2">
         <v>650000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>1769</v>
@@ -1294,10 +1339,31 @@
         <v>91.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1315,13 +1381,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1335,13 +1401,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1355,13 +1421,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1375,13 +1441,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1395,13 +1461,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1415,13 +1481,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1435,13 +1501,13 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1455,13 +1521,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1475,13 +1541,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1495,19 +1561,19 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1515,13 +1581,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1535,13 +1601,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1555,13 +1621,13 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1575,13 +1641,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1595,13 +1661,13 @@
         <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -1615,13 +1681,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1635,13 +1701,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -1655,13 +1721,13 @@
         <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -1675,13 +1741,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -1695,13 +1761,13 @@
         <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -1725,16 +1791,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1">
         <v>912713</v>
@@ -1745,16 +1811,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>912713</v>
@@ -1765,16 +1831,16 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2">
         <v>365024</v>
@@ -1795,13 +1861,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1810,13 +1876,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1825,16 +1891,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1842,7 +1908,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1859,7 +1925,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1876,16 +1942,16 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1903,16 +1969,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1920,16 +1986,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1937,16 +2003,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -178,6 +178,9 @@
     <t>(超過五年自用）.</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行松江分行</t>
@@ -1038,7 +1044,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>35</v>
@@ -1091,7 +1097,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -1144,7 +1150,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -1197,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -1242,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1283,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -1301,7 +1307,7 @@
         <v>650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -1327,7 +1333,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>1769</v>
@@ -1339,13 +1345,13 @@
         <v>91.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -1381,13 +1387,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1401,13 +1407,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1421,13 +1427,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1441,13 +1447,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1461,13 +1467,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1481,13 +1487,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1501,13 +1507,13 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1521,13 +1527,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1541,13 +1547,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1561,19 +1567,19 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1581,13 +1587,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1601,13 +1607,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1621,13 +1627,13 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1641,13 +1647,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1661,13 +1667,13 @@
         <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -1681,13 +1687,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1701,13 +1707,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -1721,13 +1727,13 @@
         <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -1741,13 +1747,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -1761,13 +1767,13 @@
         <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -1791,16 +1797,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1">
         <v>912713</v>
@@ -1811,16 +1817,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2">
         <v>912713</v>
@@ -1831,16 +1837,16 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2">
         <v>365024</v>
@@ -1861,13 +1867,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1876,13 +1882,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1891,16 +1897,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1908,7 +1914,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1925,7 +1931,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1942,16 +1948,16 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1969,16 +1975,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1986,16 +1992,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2003,16 +2009,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -199,70 +199,79 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行松江分行</t>
   </si>
   <si>
+    <t>基隆第一信用合作社八斗子分社</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行武昌分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行和平分行</t>
+  </si>
+  <si>
+    <t>f國信託商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永和福和郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄西子灣郵局</t>
+  </si>
+  <si>
+    <t>彰化商業銀行鹽埕分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行中和分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大稻埕分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行復興分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行安和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>基隆第一信用合作社八斗子分社</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行武昌分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行和平分行</t>
-  </si>
-  <si>
-    <t>f國信託商業銀行雙和分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永和福和郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高雄西子灣郵局</t>
-  </si>
-  <si>
-    <t>彰化商業銀行鹽埕分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行中和分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大稻埕分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行復興分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行安和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>353603</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>海外基金</t>
@@ -1379,13 +1388,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1396,24 +1405,45 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1421,19 +1451,40 @@
       <c r="F2" s="2">
         <v>2922</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1441,19 +1492,40 @@
       <c r="F3" s="2">
         <v>519</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1461,19 +1533,40 @@
       <c r="F4" s="2">
         <v>1264</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1481,19 +1574,40 @@
       <c r="F5" s="2">
         <v>226760</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1501,19 +1615,40 @@
       <c r="F6" s="2">
         <v>84544</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1521,19 +1656,40 @@
       <c r="F7" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1541,19 +1697,40 @@
       <c r="F8" s="2">
         <v>8045</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1561,39 +1738,81 @@
       <c r="F9" s="2">
         <v>108724</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="2">
+        <v>353603</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1601,19 +1820,40 @@
       <c r="F11" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1621,19 +1861,40 @@
       <c r="F12" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1641,19 +1902,40 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1661,19 +1943,40 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -1681,19 +1984,40 @@
       <c r="F15" s="2">
         <v>37120</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1701,19 +2025,40 @@
       <c r="F16" s="2">
         <v>103527</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -1721,19 +2066,40 @@
       <c r="F17" s="2">
         <v>512577</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -1741,19 +2107,40 @@
       <c r="F18" s="2">
         <v>879.46</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -1761,25 +2148,67 @@
       <c r="F19" s="2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="2">
         <v>5287</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1743</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1797,16 +2226,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1">
         <v>912713</v>
@@ -1817,16 +2246,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2">
         <v>912713</v>
@@ -1837,16 +2266,16 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2">
         <v>365024</v>
@@ -1867,13 +2296,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1882,13 +2311,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1897,16 +2326,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1914,7 +2343,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1931,7 +2360,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1948,16 +2377,16 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1975,16 +2404,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1992,16 +2421,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2009,16 +2438,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
+    <sheet name="珠寶、古董、字畫" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -274,28 +274,28 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>海外基金</t>
   </si>
   <si>
+    <t>富坦中國家</t>
+  </si>
+  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
-    <t>富坦中國家</t>
-  </si>
-  <si>
     <t>臺灣中小企銀</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及美</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>m:新臺幣600ooo元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>fund</t>
   </si>
   <si>
     <t>晉元康五年「五谷豐登」款越窯黯罐</t>
@@ -307,19 +307,13 @@
     <t>家傳古董民藝品</t>
   </si>
   <si>
-    <t>項件</t>
-  </si>
-  <si>
     <t>一批</t>
   </si>
   <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>無法估價</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2218,67 +2212,148 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1">
-        <v>912713</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>912713</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2">
+        <v>365024</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
         <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2">
-        <v>365024</v>
       </c>
     </row>
   </sheetData>
@@ -2288,105 +2363,159 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>350000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1743</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2">
         <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>98</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2404,16 +2533,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2421,16 +2550,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2438,16 +2567,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
+++ b/legislator/property/output/normal/邱文彥_2011-11-22_財產申報表_tmpf3df1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -313,25 +313,25 @@
     <t>無法估價</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>富邦人壽靈活理財變額保險乙型(ULB)</t>
   </si>
   <si>
-    <t>保險期間終身保險費月繳金額5000</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>南山新增值分紅養老壽險</t>
   </si>
   <si>
-    <t>保險期間25年保險費年繳金額53500</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2525,49 +2525,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1743</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>102</v>
@@ -2577,6 +2613,24 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1743</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
